--- a/biology/Botanique/William_Darlington/William_Darlington.xlsx
+++ b/biology/Botanique/William_Darlington/William_Darlington.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Darlington, né le 28 avril 1782 à Birmingham en Pennsylvanie et mort le 23 avril 1863 (à 80 ans) à West Chester, dans le même État, est un médecin, botaniste et homme politique américain, membre démocrate-républicain de la Chambre des représentants des États-Unis pour le deuxième district du Congrès de Pennsylvanie (en) de 1819 à 1823.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">William Darlington est cousin d'Edward Darlington (en), d'Isaac Darlington (en) et cousin au second degré de Smedley Darlington (en). Il fréquente la Friends School de Birmingham (en) et passe sa jeunesse dans une ferme. Il devient très tôt botaniste, étudie la médecine et est diplômé de la faculté de médecine de l'Université de Pennsylvanie à Philadelphie en 1804. Il se rend aux Indes orientales en tant que chirurgien de bord en 1806. Il retourne à West ChesterWest Chester, près de Birmingham, en 1807 et y exerce la médecine pendant plusieurs années. Il lève une compagnie de volontaires au début de la guerre anglo-américaine de 1812 et devient major d'un régiment de volontaires.
 Il est élu en tant que démocrate-républicain au quatorzième Congrès (en). Il est à nouveau élu aux seizième Congrès (en) et dix-septième Congrès (en). 
@@ -546,7 +560,9 @@
           <t>Recherches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il crée une société d'histoire naturelle à West Chester en 1826 et publie plusieurs ouvrages sur la botanique et l'histoire naturelle, notamment Mutual Influence of Habits and Disease (1804), Flora cestrica : an attempt to enumerate and describe the flowering and filicoid plants of Chester County in the state of Pennsylvania (1837) et Agricultural Botany (1847).
 Le diplôme de docteur en droit lui est conféré par l'Université Yale en 1848, puis un doctorat en sciences physiques en 1855 par le Dickinson College. 
